--- a/instance_generator/instances/instance_C2_lan/fragmentation/fragmentation_link1_request1600.xlsx
+++ b/instance_generator/instances/instance_C2_lan/fragmentation/fragmentation_link1_request1600.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3433"/>
+  <dimension ref="A1:C3431"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,7 +450,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -2620,7 +2620,7 @@
         <v>0.4232</v>
       </c>
       <c r="C199" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="200">
@@ -2631,7 +2631,7 @@
         <v>0.4888</v>
       </c>
       <c r="C200" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="201">
@@ -2642,7 +2642,7 @@
         <v>0.16</v>
       </c>
       <c r="C201" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="202">
@@ -2653,7 +2653,7 @@
         <v>0.5136000000000001</v>
       </c>
       <c r="C202" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="203">
@@ -2664,7 +2664,7 @@
         <v>0.03920000000000001</v>
       </c>
       <c r="C203" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="204">
@@ -2675,7 +2675,7 @@
         <v>0.4192000000000001</v>
       </c>
       <c r="C204" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="205">
@@ -2686,7 +2686,7 @@
         <v>0.3328</v>
       </c>
       <c r="C205" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="206">
@@ -2697,7 +2697,7 @@
         <v>0.0016</v>
       </c>
       <c r="C206" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="207">
@@ -2708,7 +2708,7 @@
         <v>0.1272</v>
       </c>
       <c r="C207" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="208">
@@ -2719,7 +2719,7 @@
         <v>0.416</v>
       </c>
       <c r="C208" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="209">
@@ -2730,7 +2730,7 @@
         <v>0.032</v>
       </c>
       <c r="C209" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="210">
@@ -2741,7 +2741,7 @@
         <v>0.4144</v>
       </c>
       <c r="C210" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="211">
@@ -2752,7 +2752,7 @@
         <v>0.3728</v>
       </c>
       <c r="C211" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="212">
@@ -2763,7 +2763,7 @@
         <v>0.4048</v>
       </c>
       <c r="C212" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="213">
@@ -2774,7 +2774,7 @@
         <v>0.612</v>
       </c>
       <c r="C213" t="n">
-        <v>1</v>
+        <v>312501</v>
       </c>
     </row>
     <row r="214">
@@ -4314,7 +4314,7 @@
         <v>0.352</v>
       </c>
       <c r="C353" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="354">
@@ -4325,7 +4325,7 @@
         <v>0.148</v>
       </c>
       <c r="C354" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="355">
@@ -4336,7 +4336,7 @@
         <v>0.456</v>
       </c>
       <c r="C355" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="356">
@@ -4347,7 +4347,7 @@
         <v>0.748</v>
       </c>
       <c r="C356" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="357">
@@ -4358,7 +4358,7 @@
         <v>0.384</v>
       </c>
       <c r="C357" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="358">
@@ -4369,7 +4369,7 @@
         <v>0.764</v>
       </c>
       <c r="C358" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="359">
@@ -4380,7 +4380,7 @@
         <v>0.6840000000000001</v>
       </c>
       <c r="C359" t="n">
-        <v>312501</v>
+        <v>625001</v>
       </c>
     </row>
     <row r="360">
@@ -5711,7 +5711,7 @@
         <v>0.5679999999999999</v>
       </c>
       <c r="C480" t="n">
-        <v>625001</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="481">
@@ -5722,7 +5722,7 @@
         <v>0.104</v>
       </c>
       <c r="C481" t="n">
-        <v>625001</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="482">
@@ -5733,7 +5733,7 @@
         <v>0.052</v>
       </c>
       <c r="C482" t="n">
-        <v>625001</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="483">
@@ -5744,7 +5744,7 @@
         <v>0.08</v>
       </c>
       <c r="C483" t="n">
-        <v>625001</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="484">
@@ -5755,7 +5755,7 @@
         <v>0.132</v>
       </c>
       <c r="C484" t="n">
-        <v>625001</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="485">
@@ -5766,7 +5766,7 @@
         <v>0.264</v>
       </c>
       <c r="C485" t="n">
-        <v>625001</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="486">
@@ -5777,7 +5777,7 @@
         <v>1.2</v>
       </c>
       <c r="C486" t="n">
-        <v>625001</v>
+        <v>937501</v>
       </c>
     </row>
     <row r="487">
@@ -6976,7 +6976,7 @@
         <v>0.448</v>
       </c>
       <c r="C595" t="n">
-        <v>937501</v>
+        <v>1250001</v>
       </c>
     </row>
     <row r="596">
@@ -6987,7 +6987,7 @@
         <v>5.672</v>
       </c>
       <c r="C596" t="n">
-        <v>937501</v>
+        <v>1250001</v>
       </c>
     </row>
     <row r="597">
@@ -6998,7 +6998,7 @@
         <v>0.7</v>
       </c>
       <c r="C597" t="n">
-        <v>937501</v>
+        <v>1250001</v>
       </c>
     </row>
     <row r="598">
@@ -7009,7 +7009,7 @@
         <v>1.748</v>
       </c>
       <c r="C598" t="n">
-        <v>937501</v>
+        <v>1250001</v>
       </c>
     </row>
     <row r="599">
@@ -7020,7 +7020,7 @@
         <v>3.224</v>
       </c>
       <c r="C599" t="n">
-        <v>937501</v>
+        <v>1250001</v>
       </c>
     </row>
     <row r="600">
@@ -8923,7 +8923,7 @@
         <v>0.3336</v>
       </c>
       <c r="C772" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="773">
@@ -8934,7 +8934,7 @@
         <v>2.788</v>
       </c>
       <c r="C773" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="774">
@@ -8945,7 +8945,7 @@
         <v>0.96</v>
       </c>
       <c r="C774" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="775">
@@ -8956,7 +8956,7 @@
         <v>0.6856</v>
       </c>
       <c r="C775" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="776">
@@ -8967,7 +8967,7 @@
         <v>2.424</v>
       </c>
       <c r="C776" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="777">
@@ -8978,7 +8978,7 @@
         <v>1.4128</v>
       </c>
       <c r="C777" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="778">
@@ -8989,7 +8989,7 @@
         <v>2.3192</v>
       </c>
       <c r="C778" t="n">
-        <v>1250001</v>
+        <v>1562501</v>
       </c>
     </row>
     <row r="779">
@@ -10067,7 +10067,7 @@
         <v>0.4064</v>
       </c>
       <c r="C876" t="n">
-        <v>1562501</v>
+        <v>1875001</v>
       </c>
     </row>
     <row r="877">
@@ -10078,7 +10078,7 @@
         <v>1.5216</v>
       </c>
       <c r="C877" t="n">
-        <v>1562501</v>
+        <v>1875001</v>
       </c>
     </row>
     <row r="878">
@@ -10089,7 +10089,7 @@
         <v>0.6344000000000001</v>
       </c>
       <c r="C878" t="n">
-        <v>1562501</v>
+        <v>1875001</v>
       </c>
     </row>
     <row r="879">
@@ -10100,7 +10100,7 @@
         <v>4.849600000000001</v>
       </c>
       <c r="C879" t="n">
-        <v>1562501</v>
+        <v>1875001</v>
       </c>
     </row>
     <row r="880">
@@ -10815,7 +10815,7 @@
         <v>3.9144</v>
       </c>
       <c r="C944" t="n">
-        <v>1875001</v>
+        <v>2187501</v>
       </c>
     </row>
     <row r="945">
@@ -10826,7 +10826,7 @@
         <v>7.9048</v>
       </c>
       <c r="C945" t="n">
-        <v>1875001</v>
+        <v>2187501</v>
       </c>
     </row>
     <row r="946">
@@ -11252,7 +11252,7 @@
         <v>982</v>
       </c>
       <c r="B984" t="n">
-        <v>10.8272</v>
+        <v>6.8272</v>
       </c>
       <c r="C984" t="n">
         <v>2187501</v>
@@ -11263,7 +11263,7 @@
         <v>983</v>
       </c>
       <c r="B985" t="n">
-        <v>0.4056</v>
+        <v>3.9248</v>
       </c>
       <c r="C985" t="n">
         <v>2187501</v>
@@ -11274,7 +11274,7 @@
         <v>984</v>
       </c>
       <c r="B986" t="n">
-        <v>1.912</v>
+        <v>0.4056</v>
       </c>
       <c r="C986" t="n">
         <v>2187501</v>
@@ -11285,7 +11285,7 @@
         <v>985</v>
       </c>
       <c r="B987" t="n">
-        <v>4.572</v>
+        <v>1.912</v>
       </c>
       <c r="C987" t="n">
         <v>2187501</v>
@@ -11296,7 +11296,7 @@
         <v>986</v>
       </c>
       <c r="B988" t="n">
-        <v>0.9088000000000001</v>
+        <v>4.572</v>
       </c>
       <c r="C988" t="n">
         <v>2187501</v>
@@ -11307,7 +11307,7 @@
         <v>987</v>
       </c>
       <c r="B989" t="n">
-        <v>2.9056</v>
+        <v>0.9088000000000001</v>
       </c>
       <c r="C989" t="n">
         <v>2187501</v>
@@ -11318,7 +11318,7 @@
         <v>988</v>
       </c>
       <c r="B990" t="n">
-        <v>22.9248</v>
+        <v>25.9056</v>
       </c>
       <c r="C990" t="n">
         <v>2187501</v>
@@ -12894,7 +12894,7 @@
         <v>0.8336</v>
       </c>
       <c r="C1133" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="1134">
@@ -12905,7 +12905,7 @@
         <v>3.9264</v>
       </c>
       <c r="C1134" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="1135">
@@ -12916,7 +12916,7 @@
         <v>1.2416</v>
       </c>
       <c r="C1135" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="1136">
@@ -12927,7 +12927,7 @@
         <v>1.408</v>
       </c>
       <c r="C1136" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="1137">
@@ -12938,7 +12938,7 @@
         <v>0.6856</v>
       </c>
       <c r="C1137" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="1138">
@@ -12949,7 +12949,7 @@
         <v>2.424</v>
       </c>
       <c r="C1138" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="1139">
@@ -12960,7 +12960,7 @@
         <v>1.4128</v>
       </c>
       <c r="C1139" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="1140">
@@ -12971,7 +12971,7 @@
         <v>3.2152</v>
       </c>
       <c r="C1140" t="n">
-        <v>2500001</v>
+        <v>2812501</v>
       </c>
     </row>
     <row r="1141">
@@ -13708,7 +13708,7 @@
         <v>0.4064</v>
       </c>
       <c r="C1207" t="n">
-        <v>2812501</v>
+        <v>3125001</v>
       </c>
     </row>
     <row r="1208">
@@ -13719,7 +13719,7 @@
         <v>2.4176</v>
       </c>
       <c r="C1208" t="n">
-        <v>2812501</v>
+        <v>3125001</v>
       </c>
     </row>
     <row r="1209">
@@ -13730,7 +13730,7 @@
         <v>1.4184</v>
       </c>
       <c r="C1209" t="n">
-        <v>2812501</v>
+        <v>3125001</v>
       </c>
     </row>
     <row r="1210">
@@ -13741,7 +13741,7 @@
         <v>6.349600000000001</v>
       </c>
       <c r="C1210" t="n">
-        <v>2812501</v>
+        <v>3125001</v>
       </c>
     </row>
     <row r="1211">
@@ -14247,7 +14247,7 @@
         <v>3.9144</v>
       </c>
       <c r="C1256" t="n">
-        <v>3125001</v>
+        <v>3437501</v>
       </c>
     </row>
     <row r="1257">
@@ -14258,7 +14258,7 @@
         <v>7.9048</v>
       </c>
       <c r="C1257" t="n">
-        <v>3125001</v>
+        <v>3437501</v>
       </c>
     </row>
     <row r="1258">
@@ -14651,7 +14651,7 @@
         <v>1291</v>
       </c>
       <c r="B1293" t="n">
-        <v>8.909600000000001</v>
+        <v>4.9096</v>
       </c>
       <c r="C1293" t="n">
         <v>3437501</v>
@@ -14662,7 +14662,7 @@
         <v>1292</v>
       </c>
       <c r="B1294" t="n">
-        <v>0.4056</v>
+        <v>3.9248</v>
       </c>
       <c r="C1294" t="n">
         <v>3437501</v>
@@ -14673,7 +14673,7 @@
         <v>1293</v>
       </c>
       <c r="B1295" t="n">
-        <v>7.412</v>
+        <v>0.4056</v>
       </c>
       <c r="C1295" t="n">
         <v>3437501</v>
@@ -14684,7 +14684,7 @@
         <v>1294</v>
       </c>
       <c r="B1296" t="n">
-        <v>0.9088000000000001</v>
+        <v>7.412</v>
       </c>
       <c r="C1296" t="n">
         <v>3437501</v>
@@ -14695,7 +14695,7 @@
         <v>1295</v>
       </c>
       <c r="B1297" t="n">
-        <v>2.9056</v>
+        <v>0.9088000000000001</v>
       </c>
       <c r="C1297" t="n">
         <v>3437501</v>
@@ -14706,7 +14706,7 @@
         <v>1296</v>
       </c>
       <c r="B1298" t="n">
-        <v>22.9248</v>
+        <v>25.9056</v>
       </c>
       <c r="C1298" t="n">
         <v>3437501</v>
@@ -16260,7 +16260,7 @@
         <v>0.8336</v>
       </c>
       <c r="C1439" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="1440">
@@ -16271,7 +16271,7 @@
         <v>3.9264</v>
       </c>
       <c r="C1440" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="1441">
@@ -16282,7 +16282,7 @@
         <v>1.2416</v>
       </c>
       <c r="C1441" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="1442">
@@ -16293,7 +16293,7 @@
         <v>1.408</v>
       </c>
       <c r="C1442" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="1443">
@@ -16304,7 +16304,7 @@
         <v>0.6856</v>
       </c>
       <c r="C1443" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="1444">
@@ -16315,7 +16315,7 @@
         <v>2.424</v>
       </c>
       <c r="C1444" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="1445">
@@ -16326,7 +16326,7 @@
         <v>1.4128</v>
       </c>
       <c r="C1445" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="1446">
@@ -16337,7 +16337,7 @@
         <v>3.2152</v>
       </c>
       <c r="C1446" t="n">
-        <v>3750001</v>
+        <v>4062501</v>
       </c>
     </row>
     <row r="1447">
@@ -17063,7 +17063,7 @@
         <v>0.4064</v>
       </c>
       <c r="C1512" t="n">
-        <v>4062501</v>
+        <v>4375001</v>
       </c>
     </row>
     <row r="1513">
@@ -17074,7 +17074,7 @@
         <v>2.4176</v>
       </c>
       <c r="C1513" t="n">
-        <v>4062501</v>
+        <v>4375001</v>
       </c>
     </row>
     <row r="1514">
@@ -17085,7 +17085,7 @@
         <v>1.4184</v>
       </c>
       <c r="C1514" t="n">
-        <v>4062501</v>
+        <v>4375001</v>
       </c>
     </row>
     <row r="1515">
@@ -17096,7 +17096,7 @@
         <v>6.349600000000001</v>
       </c>
       <c r="C1515" t="n">
-        <v>4062501</v>
+        <v>4375001</v>
       </c>
     </row>
     <row r="1516">
@@ -17602,7 +17602,7 @@
         <v>3.9144</v>
       </c>
       <c r="C1561" t="n">
-        <v>4375001</v>
+        <v>4687501</v>
       </c>
     </row>
     <row r="1562">
@@ -17613,7 +17613,7 @@
         <v>7.9048</v>
       </c>
       <c r="C1562" t="n">
-        <v>4375001</v>
+        <v>4687501</v>
       </c>
     </row>
     <row r="1563">
@@ -18006,7 +18006,7 @@
         <v>1596</v>
       </c>
       <c r="B1598" t="n">
-        <v>8.909600000000001</v>
+        <v>4.9096</v>
       </c>
       <c r="C1598" t="n">
         <v>4687501</v>
@@ -18017,7 +18017,7 @@
         <v>1597</v>
       </c>
       <c r="B1599" t="n">
-        <v>0.4056</v>
+        <v>3.9248</v>
       </c>
       <c r="C1599" t="n">
         <v>4687501</v>
@@ -18028,7 +18028,7 @@
         <v>1598</v>
       </c>
       <c r="B1600" t="n">
-        <v>7.412</v>
+        <v>0.4056</v>
       </c>
       <c r="C1600" t="n">
         <v>4687501</v>
@@ -18039,7 +18039,7 @@
         <v>1599</v>
       </c>
       <c r="B1601" t="n">
-        <v>0.9088000000000001</v>
+        <v>7.412</v>
       </c>
       <c r="C1601" t="n">
         <v>4687501</v>
@@ -18050,7 +18050,7 @@
         <v>1600</v>
       </c>
       <c r="B1602" t="n">
-        <v>2.9056</v>
+        <v>0.9088000000000001</v>
       </c>
       <c r="C1602" t="n">
         <v>4687501</v>
@@ -18061,7 +18061,7 @@
         <v>1601</v>
       </c>
       <c r="B1603" t="n">
-        <v>22.9248</v>
+        <v>25.9056</v>
       </c>
       <c r="C1603" t="n">
         <v>4687501</v>
@@ -19615,7 +19615,7 @@
         <v>0.8336</v>
       </c>
       <c r="C1744" t="n">
-        <v>5000001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="1745">
@@ -19626,7 +19626,7 @@
         <v>3.9264</v>
       </c>
       <c r="C1745" t="n">
-        <v>5000001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="1746">
@@ -19637,7 +19637,7 @@
         <v>1.2416</v>
       </c>
       <c r="C1746" t="n">
-        <v>5000001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="1747">
@@ -19648,7 +19648,7 @@
         <v>1.408</v>
       </c>
       <c r="C1747" t="n">
-        <v>5000001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="1748">
@@ -19659,7 +19659,7 @@
         <v>0.6856</v>
       </c>
       <c r="C1748" t="n">
-        <v>5000001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="1749">
@@ -19670,7 +19670,7 @@
         <v>2.424</v>
       </c>
       <c r="C1749" t="n">
-        <v>5000001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="1750">
@@ -19681,7 +19681,7 @@
         <v>1.4128</v>
       </c>
       <c r="C1750" t="n">
-        <v>5000001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="1751">
@@ -19692,7 +19692,7 @@
         <v>3.2152</v>
       </c>
       <c r="C1751" t="n">
-        <v>5000001</v>
+        <v>5312501</v>
       </c>
     </row>
     <row r="1752">
@@ -20418,7 +20418,7 @@
         <v>0.4064</v>
       </c>
       <c r="C1817" t="n">
-        <v>5312501</v>
+        <v>5625001</v>
       </c>
     </row>
     <row r="1818">
@@ -20429,7 +20429,7 @@
         <v>2.4176</v>
       </c>
       <c r="C1818" t="n">
-        <v>5312501</v>
+        <v>5625001</v>
       </c>
     </row>
     <row r="1819">
@@ -20440,7 +20440,7 @@
         <v>1.4184</v>
       </c>
       <c r="C1819" t="n">
-        <v>5312501</v>
+        <v>5625001</v>
       </c>
     </row>
     <row r="1820">
@@ -20451,7 +20451,7 @@
         <v>6.349600000000001</v>
       </c>
       <c r="C1820" t="n">
-        <v>5312501</v>
+        <v>5625001</v>
       </c>
     </row>
     <row r="1821">
@@ -20957,7 +20957,7 @@
         <v>3.9144</v>
       </c>
       <c r="C1866" t="n">
-        <v>5625001</v>
+        <v>5937501</v>
       </c>
     </row>
     <row r="1867">
@@ -20968,7 +20968,7 @@
         <v>7.9048</v>
       </c>
       <c r="C1867" t="n">
-        <v>5625001</v>
+        <v>5937501</v>
       </c>
     </row>
     <row r="1868">
@@ -21361,7 +21361,7 @@
         <v>1901</v>
       </c>
       <c r="B1903" t="n">
-        <v>8.909600000000001</v>
+        <v>4.9096</v>
       </c>
       <c r="C1903" t="n">
         <v>5937501</v>
@@ -21372,7 +21372,7 @@
         <v>1902</v>
       </c>
       <c r="B1904" t="n">
-        <v>0.4056</v>
+        <v>3.9248</v>
       </c>
       <c r="C1904" t="n">
         <v>5937501</v>
@@ -21383,7 +21383,7 @@
         <v>1903</v>
       </c>
       <c r="B1905" t="n">
-        <v>7.412</v>
+        <v>0.4056</v>
       </c>
       <c r="C1905" t="n">
         <v>5937501</v>
@@ -21394,7 +21394,7 @@
         <v>1904</v>
       </c>
       <c r="B1906" t="n">
-        <v>0.9088000000000001</v>
+        <v>7.412</v>
       </c>
       <c r="C1906" t="n">
         <v>5937501</v>
@@ -21405,7 +21405,7 @@
         <v>1905</v>
       </c>
       <c r="B1907" t="n">
-        <v>2.9056</v>
+        <v>0.9088000000000001</v>
       </c>
       <c r="C1907" t="n">
         <v>5937501</v>
@@ -21416,7 +21416,7 @@
         <v>1906</v>
       </c>
       <c r="B1908" t="n">
-        <v>22.9248</v>
+        <v>25.9056</v>
       </c>
       <c r="C1908" t="n">
         <v>5937501</v>
@@ -22970,7 +22970,7 @@
         <v>0.8336</v>
       </c>
       <c r="C2049" t="n">
-        <v>6250001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="2050">
@@ -22981,7 +22981,7 @@
         <v>3.9264</v>
       </c>
       <c r="C2050" t="n">
-        <v>6250001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="2051">
@@ -22992,7 +22992,7 @@
         <v>1.2416</v>
       </c>
       <c r="C2051" t="n">
-        <v>6250001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="2052">
@@ -23003,7 +23003,7 @@
         <v>1.408</v>
       </c>
       <c r="C2052" t="n">
-        <v>6250001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="2053">
@@ -23014,7 +23014,7 @@
         <v>0.6856</v>
       </c>
       <c r="C2053" t="n">
-        <v>6250001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="2054">
@@ -23025,7 +23025,7 @@
         <v>2.424</v>
       </c>
       <c r="C2054" t="n">
-        <v>6250001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="2055">
@@ -23036,7 +23036,7 @@
         <v>1.4128</v>
       </c>
       <c r="C2055" t="n">
-        <v>6250001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="2056">
@@ -23047,7 +23047,7 @@
         <v>3.2152</v>
       </c>
       <c r="C2056" t="n">
-        <v>6250001</v>
+        <v>6562501</v>
       </c>
     </row>
     <row r="2057">
@@ -23773,7 +23773,7 @@
         <v>0.4064</v>
       </c>
       <c r="C2122" t="n">
-        <v>6562501</v>
+        <v>6875001</v>
       </c>
     </row>
     <row r="2123">
@@ -23784,7 +23784,7 @@
         <v>2.4176</v>
       </c>
       <c r="C2123" t="n">
-        <v>6562501</v>
+        <v>6875001</v>
       </c>
     </row>
     <row r="2124">
@@ -23795,7 +23795,7 @@
         <v>1.4184</v>
       </c>
       <c r="C2124" t="n">
-        <v>6562501</v>
+        <v>6875001</v>
       </c>
     </row>
     <row r="2125">
@@ -23806,7 +23806,7 @@
         <v>6.349600000000001</v>
       </c>
       <c r="C2125" t="n">
-        <v>6562501</v>
+        <v>6875001</v>
       </c>
     </row>
     <row r="2126">
@@ -24312,7 +24312,7 @@
         <v>3.9144</v>
       </c>
       <c r="C2171" t="n">
-        <v>6875001</v>
+        <v>7187501</v>
       </c>
     </row>
     <row r="2172">
@@ -24323,7 +24323,7 @@
         <v>7.9048</v>
       </c>
       <c r="C2172" t="n">
-        <v>6875001</v>
+        <v>7187501</v>
       </c>
     </row>
     <row r="2173">
@@ -24716,7 +24716,7 @@
         <v>2206</v>
       </c>
       <c r="B2208" t="n">
-        <v>8.909600000000001</v>
+        <v>4.9096</v>
       </c>
       <c r="C2208" t="n">
         <v>7187501</v>
@@ -24727,7 +24727,7 @@
         <v>2207</v>
       </c>
       <c r="B2209" t="n">
-        <v>0.4056</v>
+        <v>3.9248</v>
       </c>
       <c r="C2209" t="n">
         <v>7187501</v>
@@ -24738,7 +24738,7 @@
         <v>2208</v>
       </c>
       <c r="B2210" t="n">
-        <v>7.412</v>
+        <v>0.4056</v>
       </c>
       <c r="C2210" t="n">
         <v>7187501</v>
@@ -24749,7 +24749,7 @@
         <v>2209</v>
       </c>
       <c r="B2211" t="n">
-        <v>0.9088000000000001</v>
+        <v>7.412</v>
       </c>
       <c r="C2211" t="n">
         <v>7187501</v>
@@ -24760,7 +24760,7 @@
         <v>2210</v>
       </c>
       <c r="B2212" t="n">
-        <v>2.9056</v>
+        <v>0.9088000000000001</v>
       </c>
       <c r="C2212" t="n">
         <v>7187501</v>
@@ -24771,7 +24771,7 @@
         <v>2211</v>
       </c>
       <c r="B2213" t="n">
-        <v>22.9248</v>
+        <v>25.9056</v>
       </c>
       <c r="C2213" t="n">
         <v>7187501</v>
@@ -26325,7 +26325,7 @@
         <v>0.8336</v>
       </c>
       <c r="C2354" t="n">
-        <v>7500001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="2355">
@@ -26336,7 +26336,7 @@
         <v>3.9264</v>
       </c>
       <c r="C2355" t="n">
-        <v>7500001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="2356">
@@ -26347,7 +26347,7 @@
         <v>1.2416</v>
       </c>
       <c r="C2356" t="n">
-        <v>7500001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="2357">
@@ -26358,7 +26358,7 @@
         <v>1.408</v>
       </c>
       <c r="C2357" t="n">
-        <v>7500001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="2358">
@@ -26369,7 +26369,7 @@
         <v>0.6856</v>
       </c>
       <c r="C2358" t="n">
-        <v>7500001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="2359">
@@ -26380,7 +26380,7 @@
         <v>2.424</v>
       </c>
       <c r="C2359" t="n">
-        <v>7500001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="2360">
@@ -26391,7 +26391,7 @@
         <v>1.4128</v>
       </c>
       <c r="C2360" t="n">
-        <v>7500001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="2361">
@@ -26402,7 +26402,7 @@
         <v>3.2152</v>
       </c>
       <c r="C2361" t="n">
-        <v>7500001</v>
+        <v>7812501</v>
       </c>
     </row>
     <row r="2362">
@@ -27128,7 +27128,7 @@
         <v>0.4064</v>
       </c>
       <c r="C2427" t="n">
-        <v>7812501</v>
+        <v>8125001</v>
       </c>
     </row>
     <row r="2428">
@@ -27139,7 +27139,7 @@
         <v>2.4176</v>
       </c>
       <c r="C2428" t="n">
-        <v>7812501</v>
+        <v>8125001</v>
       </c>
     </row>
     <row r="2429">
@@ -27150,7 +27150,7 @@
         <v>1.4184</v>
       </c>
       <c r="C2429" t="n">
-        <v>7812501</v>
+        <v>8125001</v>
       </c>
     </row>
     <row r="2430">
@@ -27161,7 +27161,7 @@
         <v>6.349600000000001</v>
       </c>
       <c r="C2430" t="n">
-        <v>7812501</v>
+        <v>8125001</v>
       </c>
     </row>
     <row r="2431">
@@ -27667,7 +27667,7 @@
         <v>3.9144</v>
       </c>
       <c r="C2476" t="n">
-        <v>8125001</v>
+        <v>8437501</v>
       </c>
     </row>
     <row r="2477">
@@ -27678,7 +27678,7 @@
         <v>7.9048</v>
       </c>
       <c r="C2477" t="n">
-        <v>8125001</v>
+        <v>8437501</v>
       </c>
     </row>
     <row r="2478">
@@ -28071,7 +28071,7 @@
         <v>2511</v>
       </c>
       <c r="B2513" t="n">
-        <v>8.909600000000001</v>
+        <v>4.9096</v>
       </c>
       <c r="C2513" t="n">
         <v>8437501</v>
@@ -28082,7 +28082,7 @@
         <v>2512</v>
       </c>
       <c r="B2514" t="n">
-        <v>0.4056</v>
+        <v>3.9248</v>
       </c>
       <c r="C2514" t="n">
         <v>8437501</v>
@@ -28093,7 +28093,7 @@
         <v>2513</v>
       </c>
       <c r="B2515" t="n">
-        <v>7.412</v>
+        <v>0.4056</v>
       </c>
       <c r="C2515" t="n">
         <v>8437501</v>
@@ -28104,7 +28104,7 @@
         <v>2514</v>
       </c>
       <c r="B2516" t="n">
-        <v>0.9088000000000001</v>
+        <v>7.412</v>
       </c>
       <c r="C2516" t="n">
         <v>8437501</v>
@@ -28115,7 +28115,7 @@
         <v>2515</v>
       </c>
       <c r="B2517" t="n">
-        <v>2.9056</v>
+        <v>0.9088000000000001</v>
       </c>
       <c r="C2517" t="n">
         <v>8437501</v>
@@ -28126,7 +28126,7 @@
         <v>2516</v>
       </c>
       <c r="B2518" t="n">
-        <v>22.9248</v>
+        <v>25.9056</v>
       </c>
       <c r="C2518" t="n">
         <v>8437501</v>
@@ -29680,7 +29680,7 @@
         <v>0.8336</v>
       </c>
       <c r="C2659" t="n">
-        <v>8750001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="2660">
@@ -29691,7 +29691,7 @@
         <v>3.9264</v>
       </c>
       <c r="C2660" t="n">
-        <v>8750001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="2661">
@@ -29702,7 +29702,7 @@
         <v>1.2416</v>
       </c>
       <c r="C2661" t="n">
-        <v>8750001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="2662">
@@ -29713,7 +29713,7 @@
         <v>1.408</v>
       </c>
       <c r="C2662" t="n">
-        <v>8750001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="2663">
@@ -29724,7 +29724,7 @@
         <v>0.6856</v>
       </c>
       <c r="C2663" t="n">
-        <v>8750001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="2664">
@@ -29735,7 +29735,7 @@
         <v>2.424</v>
       </c>
       <c r="C2664" t="n">
-        <v>8750001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="2665">
@@ -29746,7 +29746,7 @@
         <v>1.4128</v>
       </c>
       <c r="C2665" t="n">
-        <v>8750001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="2666">
@@ -29757,7 +29757,7 @@
         <v>3.2152</v>
       </c>
       <c r="C2666" t="n">
-        <v>8750001</v>
+        <v>9062501</v>
       </c>
     </row>
     <row r="2667">
@@ -30483,7 +30483,7 @@
         <v>0.4064</v>
       </c>
       <c r="C2732" t="n">
-        <v>9062501</v>
+        <v>9375001</v>
       </c>
     </row>
     <row r="2733">
@@ -30494,7 +30494,7 @@
         <v>2.4176</v>
       </c>
       <c r="C2733" t="n">
-        <v>9062501</v>
+        <v>9375001</v>
       </c>
     </row>
     <row r="2734">
@@ -30505,7 +30505,7 @@
         <v>1.4184</v>
       </c>
       <c r="C2734" t="n">
-        <v>9062501</v>
+        <v>9375001</v>
       </c>
     </row>
     <row r="2735">
@@ -30516,7 +30516,7 @@
         <v>6.349600000000001</v>
       </c>
       <c r="C2735" t="n">
-        <v>9062501</v>
+        <v>9375001</v>
       </c>
     </row>
     <row r="2736">
@@ -31022,7 +31022,7 @@
         <v>3.9144</v>
       </c>
       <c r="C2781" t="n">
-        <v>9375001</v>
+        <v>9687501</v>
       </c>
     </row>
     <row r="2782">
@@ -31033,7 +31033,7 @@
         <v>7.9048</v>
       </c>
       <c r="C2782" t="n">
-        <v>9375001</v>
+        <v>9687501</v>
       </c>
     </row>
     <row r="2783">
@@ -31426,7 +31426,7 @@
         <v>2816</v>
       </c>
       <c r="B2818" t="n">
-        <v>8.909600000000001</v>
+        <v>4.9096</v>
       </c>
       <c r="C2818" t="n">
         <v>9687501</v>
@@ -31437,7 +31437,7 @@
         <v>2817</v>
       </c>
       <c r="B2819" t="n">
-        <v>0.4056</v>
+        <v>3.9248</v>
       </c>
       <c r="C2819" t="n">
         <v>9687501</v>
@@ -31448,7 +31448,7 @@
         <v>2818</v>
       </c>
       <c r="B2820" t="n">
-        <v>7.412</v>
+        <v>0.4056</v>
       </c>
       <c r="C2820" t="n">
         <v>9687501</v>
@@ -31459,7 +31459,7 @@
         <v>2819</v>
       </c>
       <c r="B2821" t="n">
-        <v>0.9088000000000001</v>
+        <v>7.412</v>
       </c>
       <c r="C2821" t="n">
         <v>9687501</v>
@@ -31470,7 +31470,7 @@
         <v>2820</v>
       </c>
       <c r="B2822" t="n">
-        <v>2.9056</v>
+        <v>0.9088000000000001</v>
       </c>
       <c r="C2822" t="n">
         <v>9687501</v>
@@ -31481,7 +31481,7 @@
         <v>2821</v>
       </c>
       <c r="B2823" t="n">
-        <v>22.9248</v>
+        <v>25.9056</v>
       </c>
       <c r="C2823" t="n">
         <v>9687501</v>
@@ -33035,7 +33035,7 @@
         <v>0.8336</v>
       </c>
       <c r="C2964" t="n">
-        <v>10000001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="2965">
@@ -33046,7 +33046,7 @@
         <v>3.9264</v>
       </c>
       <c r="C2965" t="n">
-        <v>10000001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="2966">
@@ -33057,7 +33057,7 @@
         <v>1.2416</v>
       </c>
       <c r="C2966" t="n">
-        <v>10000001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="2967">
@@ -33068,7 +33068,7 @@
         <v>1.408</v>
       </c>
       <c r="C2967" t="n">
-        <v>10000001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="2968">
@@ -33079,7 +33079,7 @@
         <v>0.6856</v>
       </c>
       <c r="C2968" t="n">
-        <v>10000001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="2969">
@@ -33090,7 +33090,7 @@
         <v>2.424</v>
       </c>
       <c r="C2969" t="n">
-        <v>10000001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="2970">
@@ -33101,7 +33101,7 @@
         <v>1.4128</v>
       </c>
       <c r="C2970" t="n">
-        <v>10000001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="2971">
@@ -33112,7 +33112,7 @@
         <v>3.2152</v>
       </c>
       <c r="C2971" t="n">
-        <v>10000001</v>
+        <v>10312501</v>
       </c>
     </row>
     <row r="2972">
@@ -33838,7 +33838,7 @@
         <v>0.4064</v>
       </c>
       <c r="C3037" t="n">
-        <v>10312501</v>
+        <v>10625001</v>
       </c>
     </row>
     <row r="3038">
@@ -33849,7 +33849,7 @@
         <v>2.4176</v>
       </c>
       <c r="C3038" t="n">
-        <v>10312501</v>
+        <v>10625001</v>
       </c>
     </row>
     <row r="3039">
@@ -33860,7 +33860,7 @@
         <v>1.4184</v>
       </c>
       <c r="C3039" t="n">
-        <v>10312501</v>
+        <v>10625001</v>
       </c>
     </row>
     <row r="3040">
@@ -33871,7 +33871,7 @@
         <v>6.349600000000001</v>
       </c>
       <c r="C3040" t="n">
-        <v>10312501</v>
+        <v>10625001</v>
       </c>
     </row>
     <row r="3041">
@@ -34377,7 +34377,7 @@
         <v>3.9144</v>
       </c>
       <c r="C3086" t="n">
-        <v>10625001</v>
+        <v>10937501</v>
       </c>
     </row>
     <row r="3087">
@@ -34388,7 +34388,7 @@
         <v>7.9048</v>
       </c>
       <c r="C3087" t="n">
-        <v>10625001</v>
+        <v>10937501</v>
       </c>
     </row>
     <row r="3088">
@@ -34781,7 +34781,7 @@
         <v>3121</v>
       </c>
       <c r="B3123" t="n">
-        <v>8.909600000000001</v>
+        <v>4.9096</v>
       </c>
       <c r="C3123" t="n">
         <v>10937501</v>
@@ -34792,7 +34792,7 @@
         <v>3122</v>
       </c>
       <c r="B3124" t="n">
-        <v>0.4056</v>
+        <v>3.9248</v>
       </c>
       <c r="C3124" t="n">
         <v>10937501</v>
@@ -34803,7 +34803,7 @@
         <v>3123</v>
       </c>
       <c r="B3125" t="n">
-        <v>7.412</v>
+        <v>0.4056</v>
       </c>
       <c r="C3125" t="n">
         <v>10937501</v>
@@ -34814,7 +34814,7 @@
         <v>3124</v>
       </c>
       <c r="B3126" t="n">
-        <v>0.9088000000000001</v>
+        <v>7.412</v>
       </c>
       <c r="C3126" t="n">
         <v>10937501</v>
@@ -34825,7 +34825,7 @@
         <v>3125</v>
       </c>
       <c r="B3127" t="n">
-        <v>2.9056</v>
+        <v>0.9088000000000001</v>
       </c>
       <c r="C3127" t="n">
         <v>10937501</v>
@@ -34836,7 +34836,7 @@
         <v>3126</v>
       </c>
       <c r="B3128" t="n">
-        <v>22.9248</v>
+        <v>25.9056</v>
       </c>
       <c r="C3128" t="n">
         <v>10937501</v>
@@ -36390,7 +36390,7 @@
         <v>0.8336</v>
       </c>
       <c r="C3269" t="n">
-        <v>11250001</v>
+        <v>11562501</v>
       </c>
     </row>
     <row r="3270">
@@ -36401,7 +36401,7 @@
         <v>3.9264</v>
       </c>
       <c r="C3270" t="n">
-        <v>11250001</v>
+        <v>11562501</v>
       </c>
     </row>
     <row r="3271">
@@ -36412,7 +36412,7 @@
         <v>1.2416</v>
       </c>
       <c r="C3271" t="n">
-        <v>11250001</v>
+        <v>11562501</v>
       </c>
     </row>
     <row r="3272">
@@ -36423,7 +36423,7 @@
         <v>1.408</v>
       </c>
       <c r="C3272" t="n">
-        <v>11250001</v>
+        <v>11562501</v>
       </c>
     </row>
     <row r="3273">
@@ -36434,7 +36434,7 @@
         <v>0.6856</v>
       </c>
       <c r="C3273" t="n">
-        <v>11250001</v>
+        <v>11562501</v>
       </c>
     </row>
     <row r="3274">
@@ -36445,7 +36445,7 @@
         <v>2.424</v>
       </c>
       <c r="C3274" t="n">
-        <v>11250001</v>
+        <v>11562501</v>
       </c>
     </row>
     <row r="3275">
@@ -36456,7 +36456,7 @@
         <v>1.4128</v>
       </c>
       <c r="C3275" t="n">
-        <v>11250001</v>
+        <v>11562501</v>
       </c>
     </row>
     <row r="3276">
@@ -36467,7 +36467,7 @@
         <v>3.2152</v>
       </c>
       <c r="C3276" t="n">
-        <v>11250001</v>
+        <v>11562501</v>
       </c>
     </row>
     <row r="3277">
@@ -37193,7 +37193,7 @@
         <v>0.4064</v>
       </c>
       <c r="C3342" t="n">
-        <v>11562501</v>
+        <v>11875001</v>
       </c>
     </row>
     <row r="3343">
@@ -37204,7 +37204,7 @@
         <v>2.4176</v>
       </c>
       <c r="C3343" t="n">
-        <v>11562501</v>
+        <v>11875001</v>
       </c>
     </row>
     <row r="3344">
@@ -37215,7 +37215,7 @@
         <v>1.4184</v>
       </c>
       <c r="C3344" t="n">
-        <v>11562501</v>
+        <v>11875001</v>
       </c>
     </row>
     <row r="3345">
@@ -37226,7 +37226,7 @@
         <v>6.349600000000001</v>
       </c>
       <c r="C3345" t="n">
-        <v>11562501</v>
+        <v>11875001</v>
       </c>
     </row>
     <row r="3346">
@@ -37732,7 +37732,7 @@
         <v>3.9144</v>
       </c>
       <c r="C3391" t="n">
-        <v>11875001</v>
+        <v>12187501</v>
       </c>
     </row>
     <row r="3392">
@@ -37743,7 +37743,7 @@
         <v>7.9048</v>
       </c>
       <c r="C3392" t="n">
-        <v>11875001</v>
+        <v>12187501</v>
       </c>
     </row>
     <row r="3393">
@@ -38070,7 +38070,7 @@
         <v>3420</v>
       </c>
       <c r="B3422" t="n">
-        <v>7.914400000000001</v>
+        <v>3.9144</v>
       </c>
       <c r="C3422" t="n">
         <v>12187501</v>
@@ -38081,7 +38081,7 @@
         <v>3421</v>
       </c>
       <c r="B3423" t="n">
-        <v>7.848</v>
+        <v>3.9056</v>
       </c>
       <c r="C3423" t="n">
         <v>12187501</v>
@@ -38092,7 +38092,7 @@
         <v>3422</v>
       </c>
       <c r="B3424" t="n">
-        <v>8.92</v>
+        <v>7.848</v>
       </c>
       <c r="C3424" t="n">
         <v>12187501</v>
@@ -38103,7 +38103,7 @@
         <v>3423</v>
       </c>
       <c r="B3425" t="n">
-        <v>0.9264000000000001</v>
+        <v>7.92</v>
       </c>
       <c r="C3425" t="n">
         <v>12187501</v>
@@ -38114,7 +38114,7 @@
         <v>3424</v>
       </c>
       <c r="B3426" t="n">
-        <v>6.913600000000001</v>
+        <v>0.9056000000000001</v>
       </c>
       <c r="C3426" t="n">
         <v>12187501</v>
@@ -38125,7 +38125,7 @@
         <v>3425</v>
       </c>
       <c r="B3427" t="n">
-        <v>1.8272</v>
+        <v>0.9264000000000001</v>
       </c>
       <c r="C3427" t="n">
         <v>12187501</v>
@@ -38136,7 +38136,7 @@
         <v>3426</v>
       </c>
       <c r="B3428" t="n">
-        <v>8.909600000000001</v>
+        <v>6.825600000000001</v>
       </c>
       <c r="C3428" t="n">
         <v>12187501</v>
@@ -38147,7 +38147,7 @@
         <v>3427</v>
       </c>
       <c r="B3429" t="n">
-        <v>0.4056</v>
+        <v>1.736</v>
       </c>
       <c r="C3429" t="n">
         <v>12187501</v>
@@ -38158,7 +38158,7 @@
         <v>3428</v>
       </c>
       <c r="B3430" t="n">
-        <v>7.412</v>
+        <v>4.9096</v>
       </c>
       <c r="C3430" t="n">
         <v>12187501</v>
@@ -38169,31 +38169,9 @@
         <v>3429</v>
       </c>
       <c r="B3431" t="n">
-        <v>0.9088000000000001</v>
+        <v>19.9248</v>
       </c>
       <c r="C3431" t="n">
-        <v>12187501</v>
-      </c>
-    </row>
-    <row r="3432">
-      <c r="A3432" s="1" t="n">
-        <v>3430</v>
-      </c>
-      <c r="B3432" t="n">
-        <v>2.9056</v>
-      </c>
-      <c r="C3432" t="n">
-        <v>12187501</v>
-      </c>
-    </row>
-    <row r="3433">
-      <c r="A3433" s="1" t="n">
-        <v>3431</v>
-      </c>
-      <c r="B3433" t="n">
-        <v>19.9248</v>
-      </c>
-      <c r="C3433" t="n">
         <v>12187501</v>
       </c>
     </row>
